--- a/Examples/paper_port coupling/PortCoupling_IEEE14Bus.xlsx
+++ b/Examples/paper_port coupling/PortCoupling_IEEE14Bus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\data for paper_port coupling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\paper_port coupling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434B3B86-3959-4C85-AFAA-4BD41FDBC226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1178F252-E4A1-43AE-A58A-7233857A11C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1345,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1554,7 +1554,12 @@
       <c r="D24">
         <v>1.5</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F24">
+        <v>0.01</v>
+      </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
@@ -1570,7 +1575,12 @@
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="E25">
+        <v>0.02</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.01</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
@@ -1581,8 +1591,18 @@
       <c r="B26">
         <v>10</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="C26" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D26">
+        <v>1.25</v>
+      </c>
+      <c r="E26">
+        <v>0.03</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.01</v>
+      </c>
       <c r="G26" s="2">
         <v>25</v>
       </c>
@@ -1622,8 +1642,12 @@
       <c r="D29">
         <v>1.5</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="E29" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.01</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
@@ -1642,8 +1666,18 @@
       <c r="B31">
         <v>10</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="C31" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D31">
+        <v>1.25</v>
+      </c>
+      <c r="E31">
+        <v>0.03</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.01</v>
+      </c>
       <c r="G31">
         <v>25</v>
       </c>
